--- a/docs/win/dump/nhl_2.1.xlsx
+++ b/docs/win/dump/nhl_2.1.xlsx
@@ -11,15 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Time</t>
   </si>
   <si>
     <t>Teams</t>
-  </si>
-  <si>
-    <t>Goalies</t>
   </si>
   <si>
     <t>Win</t>
@@ -96,10 +93,6 @@
     </r>
   </si>
   <si>
-    <t>Darcy Kuemper
-Brandon Bussi</t>
-  </si>
-  <si>
     <t>37.3%
 62.7%</t>
   </si>
@@ -172,10 +165,6 @@
     </r>
   </si>
   <si>
-    <t>Jeremy Swayman
-Andrei Vasilevskiy</t>
-  </si>
-  <si>
     <t>39.0%
 61.0%</t>
   </si>
@@ -246,10 +235,6 @@
       </rPr>
       <t xml:space="preserve"> (28-23-3)</t>
     </r>
-  </si>
-  <si>
-    <t>Adin Hill
-Lukáš Dostál</t>
   </si>
   <si>
     <t>50.7%
@@ -292,11 +277,6 @@
     </font>
     <font>
       <sz val="12.0"/>
-      <color rgb="FF5A5A5A"/>
-      <name val="&quot;IBM Plex Sans&quot;"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
       <color rgb="FFDB3131"/>
       <name val="&quot;IBM Plex Mono&quot;"/>
     </font>
@@ -309,6 +289,11 @@
       <sz val="12.0"/>
       <color rgb="FF74B06D"/>
       <name val="&quot;IBM Plex Mono&quot;"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF5A5A5A"/>
+      <name val="&quot;IBM Plex Sans&quot;"/>
     </font>
   </fonts>
   <fills count="4">
@@ -347,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -360,34 +345,28 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -629,81 +608,69 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="6">
+        <v>5.67</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="7">
-        <v>5.67</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="9">
+        <v>6.06</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="11">
-        <v>6.06</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="6">
+        <v>6.46</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="7">
-        <v>6.46</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13"/>
+      <c r="A5" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
